--- a/Data/MAG quality.xlsx
+++ b/Data/MAG quality.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\学习\地质科研\毕业\钒污染微生物地化\图表\Binning\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21EC5E44-AD2F-4335-A153-BCD6AC8BE5FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12E2AF39-5CDC-42AA-8848-C56BA54B1892}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{B84574B6-A3B7-473E-8CCC-B58821BB8947}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="134">
   <si>
     <t>Contigs
  Num</t>
@@ -47,9 +47,6 @@
     <t>bin101</t>
   </si>
   <si>
-    <t>bin419</t>
-  </si>
-  <si>
     <t>bin394</t>
   </si>
   <si>
@@ -171,9 +168,6 @@
   </si>
   <si>
     <t>bin375</t>
-  </si>
-  <si>
-    <t>bin334</t>
   </si>
   <si>
     <t>bin32</t>
@@ -456,12 +450,204 @@
       <t>）</t>
     </r>
   </si>
+  <si>
+    <t>bin310</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Taxonomy</t>
+  </si>
+  <si>
+    <t>d_Bacteria;p_Proteobacteria;c_Gammaproteobacteria;</t>
+  </si>
+  <si>
+    <t>d_Bacteria;p_Actinobacteria;c_Actinobacteria;o_Actinomycetales;f_Pseudonocardiaceae;</t>
+  </si>
+  <si>
+    <t>d_Bacteria;p_Proteobacteria;c_Alphaproteobacteria;o_Rhizobiales;</t>
+  </si>
+  <si>
+    <t>d_Bacteria;p_Deinococcus-Thermus;c_Deinococci;o_Deinococcales;</t>
+  </si>
+  <si>
+    <t>d_Bacteria;p_Nitrospirae;c_Nitrospira;o_Nitrospirales;f_Nitrospiraceae;g_Nitrospira;s_Candidatus Nitrospira defluvii;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d_Bacteria;p_Actinobacteria;c_Actinobacteria;o_Actinomycetales;</t>
+  </si>
+  <si>
+    <t>d_Bacteria;p_Proteobacteria;c_Betaproteobacteria;o_Burkholderiales;f_Burkholderiaceae;g_Burkholderia;s_Burkholderia phymatum;</t>
+  </si>
+  <si>
+    <t>d_Bacteria;p_Chloroflexi;c_Thermomicrobia;o_Sphaerobacterales;f_Sphaerobacteraceae;g_Sphaerobacter;s_Sphaerobacter thermophilus;</t>
+  </si>
+  <si>
+    <t>d_Bacteria;p_Acidobacteria;c_Acidobacteriia;o_Acidobacteriales;f_Acidobacteriaceae;</t>
+  </si>
+  <si>
+    <t>d_Bacteria;p_Actinobacteria;c_Actinobacteria;o_Solirubrobacterales;f_Conexibacteraceae;g_Conexibacter;s_Conexibacter woesei;</t>
+  </si>
+  <si>
+    <t>d_Bacteria;p_Proteobacteria;c_Alphaproteobacteria;o_Sphingomonadales;f_Sphingomonadaceae;</t>
+  </si>
+  <si>
+    <t>d_Bacteria;p_Actinobacteria;c_Actinobacteria;o_Actinomycetales;f_Nocardioidaceae;g_Nocardioides;s_Nocardioides sp. JS614;</t>
+  </si>
+  <si>
+    <t>d_Bacteria;p_Actinobacteria;c_Actinobacteria;o_Actinomycetales;f_Mycobacteriaceae;g_Mycobacterium;</t>
+  </si>
+  <si>
+    <t>d_Bacteria;p_Actinobacteria;c_Actinobacteria;o_Acidimicrobiales;f_Acidimicrobiaceae;g_Acidimicrobium;s_Acidimicrobium ferrooxidans;</t>
+  </si>
+  <si>
+    <t>d_Bacteria;p_Actinobacteria;c_Actinobacteria;o_Acidimicrobiales;f_Acidimicrobiaceae;g_Acidimicrobium;s_Acidimicrobium ferrooxidans;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d_Bacteria;p_Chloroflexi;c_Anaerolineae;o_Anaerolineales;f_Anaerolineaceae;g_Anaerolinea;s_Anaerolinea thermophila;</t>
+  </si>
+  <si>
+    <t>bin334</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d_Bacteria;p_Proteobacteria;c_Alphaproteobacteria;o_Rhizobiales;f_Anderseniellaceae;g_PALSA-927</t>
+  </si>
+  <si>
+    <t>d_Bacteria;p_Proteobacteria;c_Alphaproteobacteria;o_Rhizobiales;f_Anderseniellaceae;g_PALSA-927</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d_Bacteria;p_Acidobacteria;c_Solibacteres;o_Solibacterales;f_Solibacteraceae;g_Candidatus Solibacter;s_Candidatus Solibacter usitatus;</t>
+  </si>
+  <si>
+    <t>d_Bacteria;p_Chloroflexota;c_Dehalococcoidia;o_SM23-28-2</t>
+  </si>
+  <si>
+    <t>d_Bacteria;p_Actinobacteriota;c_Actinomycetia;o_Propionibacteriales;f_Nocardioidaceae;g_Nocardioides</t>
+  </si>
+  <si>
+    <t>d_Bacteria;p_Actinobacteriota;c_Actinomycetia;o_Mycobacteriales</t>
+  </si>
+  <si>
+    <t>d_Bacteria;p_Actinobacteriota;c_Acidimicrobiia;o_Acidimicrobiales</t>
+  </si>
+  <si>
+    <t>d_Bacteria;p_Actinobacteriota;c_Actinomycetia;o_Streptosporangiales;f_Streptosporangiaceae;g_UBA9676</t>
+  </si>
+  <si>
+    <t>d_Bacteria;p_Actinobacteriota;c_Acidimicrobiia;o_Acidimicrobiales;f_Palsa-688</t>
+  </si>
+  <si>
+    <t>d_Bacteria;p_Bacteroidota;c_Bacteroidia;o_Cytophagales;f_Hymenobacteraceae;g_Pontibacter</t>
+  </si>
+  <si>
+    <t>d_Bacteria;p_Chloroflexota;c_Ktedonobacteria;o_Ktedonobacterales</t>
+  </si>
+  <si>
+    <t>d_Bacteria;p_Actinobacteriota;c_Actinomycetia;o_Mycobacteriales;f_Mycobacteriaceae;g_Mycobacterium;s_Mycobacterium sinensis_A</t>
+  </si>
+  <si>
+    <t>d_Bacteria;p_Acidobacteriota;c_Vicinamibacteria;o_Vicinamibacterales;f_2-12-FULL-66-21</t>
+  </si>
+  <si>
+    <t>d_Bacteria;p_Proteobacteria;c_Alphaproteobacteria;o_Sphingomonadales;f_Sphingomonadaceae;g_Croceibacterium</t>
+  </si>
+  <si>
+    <t>d_Bacteria;p_Actinobacteriota;c_Thermoleophilia;o_Solirubrobacterales;f_Thermoleophilaceae</t>
+  </si>
+  <si>
+    <t>d_Bacteria;p_Proteobacteria;c_Alphaproteobacteria;o_Rhizobiales;f_Anderseniellaceae</t>
+  </si>
+  <si>
+    <t>d_Bacteria;p_Proteobacteria;c_Gammaproteobacteria;o_Burkholderiales;f_Burkholderiaceae;g_Paraburkholderia</t>
+  </si>
+  <si>
+    <t>d_Bacteria;p_Bacteroidota;c_Bacteroidia;o_Sphingobacteriales;f_Sphingobacteriaceae;g_Pseudosphingobacterium</t>
+  </si>
+  <si>
+    <t>d_Bacteria;p_Actinobacteriota;c_Actinomycetia;o_Mycobacteriales;f_Jatrophihabitantaceae;g_Jatrophihabitans</t>
+  </si>
+  <si>
+    <t>d_Bacteria;p_Proteobacteria;c_Gammaproteobacteria;o_XJ16;f_Halofilaceae;g_Halofilum</t>
+  </si>
+  <si>
+    <t>d_Bacteria;p_Verrucomicrobiota;c_Verrucomicrobiae;o_Chthoniobacterales;f_UBA10450;g_Palsa-1392</t>
+  </si>
+  <si>
+    <t>d_Bacteria;p_Actinobacteriota;c_UBA4738</t>
+  </si>
+  <si>
+    <t>d_Bacteria;p_Actinobacteriota;c_Actinomycetia;o_Mycobacteriales;f_Frankiaceae</t>
+  </si>
+  <si>
+    <t>d_Bacteria;p_Gemmatimonadota;c_Gemmatimonadetes;o_Gemmatimonadales;f_GWC2-71-9</t>
+  </si>
+  <si>
+    <t>d_Bacteria;p_Proteobacteria;c_Gammaproteobacteria;o_Burkholderiales;f_Palsa-1005;g_VBCG01</t>
+  </si>
+  <si>
+    <t>d_Bacteria;p_Desulfobacterota_B;c_Binatia;o_UBA9968;f_UBA9968;g_DP-20</t>
+  </si>
+  <si>
+    <t>d_Bacteria;p_Bacteroidota;c_Bacteroidia;o_AKYH767;f_Palsa-965;g_GCA-2737665</t>
+  </si>
+  <si>
+    <t>d_Bacteria;p_Chloroflexota;c_Chloroflexia</t>
+  </si>
+  <si>
+    <t>d_Bacteria;p_Proteobacteria;c_Gammaproteobacteria;o_Xanthomonadales;f_Xanthomonadaceae;g_Lysobacter</t>
+  </si>
+  <si>
+    <t>d_Bacteria;p_Chloroflexota;c_Ellin6529;o_CSP1-4;f_CSP1-4;g_CF-46</t>
+  </si>
+  <si>
+    <t>d_Bacteria;p_Bacteroidota;c_Rhodothermia;o_Balneolales;f_Balneolaceae;g_SMO-BIN1</t>
+  </si>
+  <si>
+    <t>d_Bacteria;p_Chloroflexota;c_Ellin6529;o_CSP1-4;f_CSP1-4;g_SPCO01</t>
+  </si>
+  <si>
+    <t>d_Bacteria;p_Bacteroidota;c_Rhodothermia;o_Balneolales;f_Balneolaceae</t>
+  </si>
+  <si>
+    <t>d_Bacteria;p_Proteobacteria;c_Alphaproteobacteria;o_Rhizobiales;f_Rhizobiaceae;g_Phyllobacterium</t>
+  </si>
+  <si>
+    <t>d_Bacteria;p_Gemmatimonadota;c_Gemmatimonadetes;o_Gemmatimonadales;f_Gemmatimonadaceae; g_FEN-1250</t>
+  </si>
+  <si>
+    <t>d_Bacteria;p_Acidobacteriota;c_Blastocatellia;o_Pyrinomonadales;f_Pyrinomonadaceae;g_QHXN01</t>
+  </si>
+  <si>
+    <t>d_Bacteria;p_Verrucomicrobiota;c_Verrucomicrobiae;o_Chthoniobacterales;f_UBA10450;g_AV40</t>
+  </si>
+  <si>
+    <t>d_Bacteria;p_Proteobacteria;c_Gammaproteobacteria;o_Burkholderiales;f_UKL13-2</t>
+  </si>
+  <si>
+    <t>d_Bacteria;p_Actinobacteria;c_Actinobacteria;o_Rubrobacterales;f_Rubrobacteraceae;g_Rubrobacter;s_Rubrobacter xylanophilus;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d_Bacteria;p_Proteobacteria;c_Gammaproteobacteria;o_Steroidobacterales;f_Steroidobacteraceae; g_steroidobacter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>d_Bacteria;p_Actinobacteria;c_Actinobacteria;o_Actinomycetales;f_Micromonosporaceae; g_Micromonospora</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bin419</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -493,13 +679,27 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -516,7 +716,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -531,6 +731,21 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -846,1988 +1061,2231 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D78CA1B-10CA-476C-B722-C5FFF7C21241}">
-  <dimension ref="A1:I68"/>
+  <dimension ref="A1:J69"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="H60" sqref="H60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="6" max="6" width="9.83203125" customWidth="1"/>
+    <col min="7" max="7" width="10.08203125" customWidth="1"/>
+    <col min="8" max="8" width="10.4140625" customWidth="1"/>
+    <col min="9" max="9" width="10.58203125" customWidth="1"/>
+    <col min="10" max="10" width="33.75" style="5" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="34.5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="34.5" x14ac:dyDescent="0.3">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="H1" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>65</v>
+        <v>4</v>
       </c>
       <c r="B2" s="4">
-        <v>1150</v>
+        <v>373</v>
       </c>
       <c r="C2" s="4">
-        <v>2888246</v>
+        <v>2911730</v>
       </c>
       <c r="D2" s="4">
-        <v>8897</v>
+        <v>52421</v>
       </c>
       <c r="E2" s="4">
-        <v>2587</v>
+        <v>11772</v>
       </c>
       <c r="F2" s="4">
-        <v>2512</v>
+        <v>7806</v>
       </c>
       <c r="G2" s="4">
-        <v>70.83</v>
+        <v>84.16</v>
       </c>
       <c r="H2" s="4">
-        <v>11.97</v>
+        <v>6.93</v>
       </c>
       <c r="I2" s="4">
-        <v>4.88</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+        <v>14.29</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="B3" s="4">
-        <v>453</v>
+        <v>1601</v>
       </c>
       <c r="C3" s="4">
-        <v>2864953</v>
+        <v>6682559</v>
       </c>
       <c r="D3" s="4">
-        <v>33042</v>
+        <v>30370</v>
       </c>
       <c r="E3" s="4">
-        <v>7981</v>
+        <v>5332</v>
       </c>
       <c r="F3" s="4">
-        <v>6324</v>
+        <v>4174</v>
       </c>
       <c r="G3" s="4">
-        <v>70.89</v>
+        <v>92.55</v>
       </c>
       <c r="H3" s="4">
-        <v>7.21</v>
+        <v>8.83</v>
       </c>
       <c r="I3" s="4">
-        <v>46.15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B4" s="4">
-        <v>1268</v>
-      </c>
-      <c r="C4" s="4">
-        <v>4166282</v>
-      </c>
-      <c r="D4" s="4">
-        <v>19864</v>
-      </c>
-      <c r="E4" s="4">
-        <v>3756</v>
-      </c>
-      <c r="F4" s="4">
-        <v>3286</v>
-      </c>
-      <c r="G4" s="4">
-        <v>76.52</v>
-      </c>
-      <c r="H4" s="4">
-        <v>13.85</v>
-      </c>
-      <c r="I4" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+        <v>35.71</v>
+      </c>
+      <c r="J3" s="5" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="7">
+        <v>911</v>
+      </c>
+      <c r="C4" s="7">
+        <v>3005219</v>
+      </c>
+      <c r="D4" s="7">
+        <v>12894</v>
+      </c>
+      <c r="E4" s="7">
+        <v>3607</v>
+      </c>
+      <c r="F4" s="7">
+        <v>3299</v>
+      </c>
+      <c r="G4" s="7">
+        <v>79.25</v>
+      </c>
+      <c r="H4" s="7">
+        <v>7.89</v>
+      </c>
+      <c r="I4" s="7">
+        <v>18.18</v>
+      </c>
+      <c r="J4" s="8" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="B5" s="4">
-        <v>522</v>
+        <v>930</v>
       </c>
       <c r="C5" s="4">
-        <v>1959850</v>
+        <v>8052229</v>
       </c>
       <c r="D5" s="4">
-        <v>16203</v>
+        <v>121439</v>
       </c>
       <c r="E5" s="4">
-        <v>4320</v>
+        <v>16090</v>
       </c>
       <c r="F5" s="4">
-        <v>3755</v>
+        <v>10799</v>
       </c>
       <c r="G5" s="4">
-        <v>67.42</v>
+        <v>93.68</v>
       </c>
       <c r="H5" s="4">
-        <v>0.68</v>
+        <v>5.2</v>
       </c>
       <c r="I5" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J5" s="5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="B6" s="4">
-        <v>194</v>
+        <v>820</v>
       </c>
       <c r="C6" s="4">
-        <v>6071438</v>
+        <v>3128623</v>
       </c>
       <c r="D6" s="4">
-        <v>188737</v>
+        <v>30784</v>
       </c>
       <c r="E6" s="4">
-        <v>51522</v>
+        <v>4717</v>
       </c>
       <c r="F6" s="4">
-        <v>31296</v>
+        <v>3815</v>
       </c>
       <c r="G6" s="4">
-        <v>94.68</v>
+        <v>83.24</v>
       </c>
       <c r="H6" s="4">
-        <v>4.2699999999999996</v>
+        <v>13.57</v>
       </c>
       <c r="I6" s="4">
+        <v>6.45</v>
+      </c>
+      <c r="J6" s="5" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B7" s="4">
+        <v>661</v>
+      </c>
+      <c r="C7" s="4">
+        <v>3905801</v>
+      </c>
+      <c r="D7" s="4">
+        <v>26079</v>
+      </c>
+      <c r="E7" s="4">
+        <v>6822</v>
+      </c>
+      <c r="F7" s="4">
+        <v>5909</v>
+      </c>
+      <c r="G7" s="4">
+        <v>66.38</v>
+      </c>
+      <c r="H7" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B7" s="4">
-        <v>585</v>
-      </c>
-      <c r="C7" s="4">
-        <v>4665381</v>
-      </c>
-      <c r="D7" s="4">
-        <v>70751</v>
-      </c>
-      <c r="E7" s="4">
-        <v>12561</v>
-      </c>
-      <c r="F7" s="4">
-        <v>7975</v>
-      </c>
-      <c r="G7" s="4">
-        <v>79.91</v>
-      </c>
-      <c r="H7" s="4">
-        <v>4.3</v>
-      </c>
       <c r="I7" s="4">
-        <v>18.18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B8" s="4">
-        <v>533</v>
-      </c>
-      <c r="C8" s="4">
-        <v>2311786</v>
-      </c>
-      <c r="D8" s="4">
-        <v>26036</v>
-      </c>
-      <c r="E8" s="4">
-        <v>5306</v>
-      </c>
-      <c r="F8" s="4">
-        <v>4337</v>
-      </c>
-      <c r="G8" s="4">
-        <v>67.739999999999995</v>
-      </c>
-      <c r="H8" s="4">
-        <v>4.5599999999999996</v>
-      </c>
-      <c r="I8" s="4">
-        <v>11.11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="7">
+        <v>625</v>
+      </c>
+      <c r="C8" s="7">
+        <v>2381711</v>
+      </c>
+      <c r="D8" s="7">
+        <v>24629</v>
+      </c>
+      <c r="E8" s="7">
+        <v>4498</v>
+      </c>
+      <c r="F8" s="7">
+        <v>4011</v>
+      </c>
+      <c r="G8" s="7">
+        <v>69.34</v>
+      </c>
+      <c r="H8" s="7">
+        <v>10.52</v>
+      </c>
+      <c r="I8" s="7">
+        <v>18.97</v>
+      </c>
+      <c r="J8" s="8" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B9" s="4">
-        <v>257</v>
+        <v>406</v>
       </c>
       <c r="C9" s="4">
-        <v>4349857</v>
+        <v>2455239</v>
       </c>
       <c r="D9" s="4">
-        <v>86624</v>
+        <v>74271</v>
       </c>
       <c r="E9" s="4">
-        <v>29966</v>
+        <v>8043</v>
       </c>
       <c r="F9" s="4">
-        <v>16926</v>
+        <v>6047</v>
       </c>
       <c r="G9" s="4">
-        <v>93.92</v>
+        <v>80.489999999999995</v>
       </c>
       <c r="H9" s="4">
-        <v>5.98</v>
+        <v>10.71</v>
       </c>
       <c r="I9" s="4">
-        <v>18.18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+        <v>5.88</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
-        <v>60</v>
+        <v>14</v>
       </c>
       <c r="B10" s="4">
-        <v>595</v>
+        <v>157</v>
       </c>
       <c r="C10" s="4">
-        <v>4167552</v>
+        <v>5065830</v>
       </c>
       <c r="D10" s="4">
-        <v>42315</v>
+        <v>185850</v>
       </c>
       <c r="E10" s="4">
-        <v>9553</v>
+        <v>53459</v>
       </c>
       <c r="F10" s="4">
-        <v>7004</v>
+        <v>32266</v>
       </c>
       <c r="G10" s="4">
-        <v>95.29</v>
+        <v>98.96</v>
       </c>
       <c r="H10" s="4">
-        <v>1.68</v>
+        <v>1.71</v>
       </c>
       <c r="I10" s="4">
+        <v>0</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" s="7">
+        <v>489</v>
+      </c>
+      <c r="C11" s="7">
+        <v>2847672</v>
+      </c>
+      <c r="D11" s="7">
+        <v>38805</v>
+      </c>
+      <c r="E11" s="7">
+        <v>8313</v>
+      </c>
+      <c r="F11" s="7">
+        <v>5823</v>
+      </c>
+      <c r="G11" s="7">
+        <v>78.03</v>
+      </c>
+      <c r="H11" s="7">
+        <v>11.66</v>
+      </c>
+      <c r="I11" s="7">
+        <v>13.79</v>
+      </c>
+      <c r="J11" s="8" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="4">
+        <v>1680</v>
+      </c>
+      <c r="C12" s="4">
+        <v>4590636</v>
+      </c>
+      <c r="D12" s="4">
+        <v>11481</v>
+      </c>
+      <c r="E12" s="4">
+        <v>2875</v>
+      </c>
+      <c r="F12" s="4">
+        <v>2733</v>
+      </c>
+      <c r="G12" s="4">
+        <v>70.430000000000007</v>
+      </c>
+      <c r="H12" s="4">
+        <v>3.11</v>
+      </c>
+      <c r="I12" s="4">
+        <v>40</v>
+      </c>
+      <c r="J12" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B11" s="4">
-        <v>637</v>
-      </c>
-      <c r="C11" s="4">
-        <v>2698834</v>
-      </c>
-      <c r="D11" s="4">
-        <v>16324</v>
-      </c>
-      <c r="E11" s="4">
-        <v>4679</v>
-      </c>
-      <c r="F11" s="4">
-        <v>4237</v>
-      </c>
-      <c r="G11" s="4">
-        <v>70.61</v>
-      </c>
-      <c r="H11" s="4">
-        <v>13.43</v>
-      </c>
-      <c r="I11" s="4">
-        <v>44.44</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B12" s="4">
-        <v>761</v>
-      </c>
-      <c r="C12" s="4">
-        <v>2061553</v>
-      </c>
-      <c r="D12" s="4">
-        <v>9527</v>
-      </c>
-      <c r="E12" s="4">
-        <v>2829</v>
-      </c>
-      <c r="F12" s="4">
-        <v>2709</v>
-      </c>
-      <c r="G12" s="4">
-        <v>65.83</v>
-      </c>
-      <c r="H12" s="4">
-        <v>14.89</v>
-      </c>
-      <c r="I12" s="4">
+      <c r="B13" s="4">
+        <v>727</v>
+      </c>
+      <c r="C13" s="4">
+        <v>2639665</v>
+      </c>
+      <c r="D13" s="4">
+        <v>13516</v>
+      </c>
+      <c r="E13" s="4">
+        <v>3969</v>
+      </c>
+      <c r="F13" s="4">
+        <v>3631</v>
+      </c>
+      <c r="G13" s="4">
+        <v>69.87</v>
+      </c>
+      <c r="H13" s="4">
+        <v>12.8</v>
+      </c>
+      <c r="I13" s="4">
+        <v>28.57</v>
+      </c>
+      <c r="J13" s="5" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" s="4">
+        <v>387</v>
+      </c>
+      <c r="C14" s="4">
+        <v>7744305</v>
+      </c>
+      <c r="D14" s="4">
+        <v>201332</v>
+      </c>
+      <c r="E14" s="4">
+        <v>48646</v>
+      </c>
+      <c r="F14" s="4">
+        <v>20011</v>
+      </c>
+      <c r="G14" s="4">
+        <v>94.62</v>
+      </c>
+      <c r="H14" s="4">
+        <v>10.67</v>
+      </c>
+      <c r="I14" s="4">
+        <v>20.37</v>
+      </c>
+      <c r="J14" s="5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" s="4">
+        <v>273</v>
+      </c>
+      <c r="C15" s="4">
+        <v>2759180</v>
+      </c>
+      <c r="D15" s="4">
+        <v>128643</v>
+      </c>
+      <c r="E15" s="4">
+        <v>16128</v>
+      </c>
+      <c r="F15" s="4">
+        <v>10107</v>
+      </c>
+      <c r="G15" s="4">
+        <v>94.17</v>
+      </c>
+      <c r="H15" s="4">
+        <v>3.97</v>
+      </c>
+      <c r="I15" s="4">
+        <v>35.29</v>
+      </c>
+      <c r="J15" s="5" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" s="7">
+        <v>1239</v>
+      </c>
+      <c r="C16" s="7">
+        <v>6435600</v>
+      </c>
+      <c r="D16" s="7">
+        <v>44285</v>
+      </c>
+      <c r="E16" s="7">
+        <v>6585</v>
+      </c>
+      <c r="F16" s="7">
+        <v>5194</v>
+      </c>
+      <c r="G16" s="7">
+        <v>90.8</v>
+      </c>
+      <c r="H16" s="7">
+        <v>3.16</v>
+      </c>
+      <c r="I16" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B13" s="4">
-        <v>88</v>
-      </c>
-      <c r="C13" s="4">
-        <v>2728312</v>
-      </c>
-      <c r="D13" s="4">
-        <v>198475</v>
-      </c>
-      <c r="E13" s="4">
-        <v>50079</v>
-      </c>
-      <c r="F13" s="4">
-        <v>31004</v>
-      </c>
-      <c r="G13" s="4">
-        <v>94.08</v>
-      </c>
-      <c r="H13" s="4">
-        <v>0.82</v>
-      </c>
-      <c r="I13" s="4">
+      <c r="J16" s="8" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17" s="4">
+        <v>735</v>
+      </c>
+      <c r="C17" s="4">
+        <v>4236489</v>
+      </c>
+      <c r="D17" s="4">
+        <v>32671</v>
+      </c>
+      <c r="E17" s="4">
+        <v>7225</v>
+      </c>
+      <c r="F17" s="4">
+        <v>5764</v>
+      </c>
+      <c r="G17" s="4">
+        <v>63.48</v>
+      </c>
+      <c r="H17" s="4">
         <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A14" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="B14" s="4">
-        <v>1374</v>
-      </c>
-      <c r="C14" s="4">
-        <v>4234056</v>
-      </c>
-      <c r="D14" s="4">
-        <v>17390</v>
-      </c>
-      <c r="E14" s="4">
-        <v>3400</v>
-      </c>
-      <c r="F14" s="4">
-        <v>3082</v>
-      </c>
-      <c r="G14" s="4">
-        <v>68.290000000000006</v>
-      </c>
-      <c r="H14" s="4">
-        <v>6.69</v>
-      </c>
-      <c r="I14" s="4">
-        <v>8.11</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A15" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B15" s="4">
-        <v>765</v>
-      </c>
-      <c r="C15" s="4">
-        <v>3146301</v>
-      </c>
-      <c r="D15" s="4">
-        <v>20724</v>
-      </c>
-      <c r="E15" s="4">
-        <v>5061</v>
-      </c>
-      <c r="F15" s="4">
-        <v>4113</v>
-      </c>
-      <c r="G15" s="4">
-        <v>82.37</v>
-      </c>
-      <c r="H15" s="4">
-        <v>8.69</v>
-      </c>
-      <c r="I15" s="4">
-        <v>33.33</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A16" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="B16" s="4">
-        <v>623</v>
-      </c>
-      <c r="C16" s="4">
-        <v>1971248</v>
-      </c>
-      <c r="D16" s="4">
-        <v>15180</v>
-      </c>
-      <c r="E16" s="4">
-        <v>3451</v>
-      </c>
-      <c r="F16" s="4">
-        <v>3164</v>
-      </c>
-      <c r="G16" s="4">
-        <v>67.010000000000005</v>
-      </c>
-      <c r="H16" s="4">
-        <v>3.11</v>
-      </c>
-      <c r="I16" s="4">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A17" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B17" s="4">
-        <v>550</v>
-      </c>
-      <c r="C17" s="4">
-        <v>1877305</v>
-      </c>
-      <c r="D17" s="4">
-        <v>20334</v>
-      </c>
-      <c r="E17" s="4">
-        <v>3680</v>
-      </c>
-      <c r="F17" s="4">
-        <v>3413</v>
-      </c>
-      <c r="G17" s="4">
-        <v>65.94</v>
-      </c>
-      <c r="H17" s="4">
-        <v>0.59</v>
       </c>
       <c r="I17" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J17" s="5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="3" t="s">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="B18" s="4">
-        <v>1157</v>
+        <v>842</v>
       </c>
       <c r="C18" s="4">
-        <v>3663284</v>
+        <v>3399924</v>
       </c>
       <c r="D18" s="4">
-        <v>16484</v>
+        <v>31988</v>
       </c>
       <c r="E18" s="4">
-        <v>3519</v>
+        <v>4995</v>
       </c>
       <c r="F18" s="4">
-        <v>3166</v>
+        <v>4038</v>
       </c>
       <c r="G18" s="4">
-        <v>68.42</v>
+        <v>76.180000000000007</v>
       </c>
       <c r="H18" s="4">
-        <v>3.88</v>
+        <v>14.8</v>
       </c>
       <c r="I18" s="4">
+        <v>20.59</v>
+      </c>
+      <c r="J18" s="5" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B19" s="4">
+        <v>808</v>
+      </c>
+      <c r="C19" s="4">
+        <v>5788310</v>
+      </c>
+      <c r="D19" s="4">
+        <v>54688</v>
+      </c>
+      <c r="E19" s="4">
+        <v>8730</v>
+      </c>
+      <c r="F19" s="4">
+        <v>7164</v>
+      </c>
+      <c r="G19" s="4">
+        <v>92.69</v>
+      </c>
+      <c r="H19" s="4">
+        <v>2.59</v>
+      </c>
+      <c r="I19" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A19" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B19" s="4">
-        <v>306</v>
-      </c>
-      <c r="C19" s="4">
-        <v>4336424</v>
-      </c>
-      <c r="D19" s="4">
-        <v>127932</v>
-      </c>
-      <c r="E19" s="4">
-        <v>27319</v>
-      </c>
-      <c r="F19" s="4">
-        <v>14171</v>
-      </c>
-      <c r="G19" s="4">
-        <v>92.12</v>
-      </c>
-      <c r="H19" s="4">
-        <v>12.2</v>
-      </c>
-      <c r="I19" s="4">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J19" s="5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="3" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="B20" s="4">
-        <v>480</v>
+        <v>908</v>
       </c>
       <c r="C20" s="4">
-        <v>3966678</v>
+        <v>2932732</v>
       </c>
       <c r="D20" s="4">
-        <v>42998</v>
+        <v>16112</v>
       </c>
       <c r="E20" s="4">
-        <v>10606</v>
+        <v>3560</v>
       </c>
       <c r="F20" s="4">
-        <v>8264</v>
+        <v>3230</v>
       </c>
       <c r="G20" s="4">
-        <v>91.61</v>
+        <v>78.150000000000006</v>
       </c>
       <c r="H20" s="4">
-        <v>0.79</v>
+        <v>13</v>
       </c>
       <c r="I20" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J20" s="5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
-        <v>53</v>
+        <v>17</v>
       </c>
       <c r="B21" s="4">
-        <v>1740</v>
+        <v>564</v>
       </c>
       <c r="C21" s="4">
-        <v>5092525</v>
+        <v>1995545</v>
       </c>
       <c r="D21" s="4">
-        <v>47244</v>
+        <v>16869</v>
       </c>
       <c r="E21" s="4">
-        <v>3076</v>
+        <v>4147</v>
       </c>
       <c r="F21" s="4">
-        <v>2927</v>
+        <v>3538</v>
       </c>
       <c r="G21" s="4">
-        <v>69.12</v>
+        <v>66.459999999999994</v>
       </c>
       <c r="H21" s="4">
-        <v>14.15</v>
+        <v>2.61</v>
       </c>
       <c r="I21" s="4">
-        <v>4.17</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="J21" s="5" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="3" t="s">
-        <v>67</v>
+        <v>43</v>
       </c>
       <c r="B22" s="4">
-        <v>771</v>
+        <v>576</v>
       </c>
       <c r="C22" s="4">
-        <v>3064732</v>
+        <v>3501132</v>
       </c>
       <c r="D22" s="4">
-        <v>21647</v>
+        <v>25499</v>
       </c>
       <c r="E22" s="4">
-        <v>4707</v>
+        <v>7200</v>
       </c>
       <c r="F22" s="4">
-        <v>3975</v>
+        <v>6078</v>
       </c>
       <c r="G22" s="4">
-        <v>68.430000000000007</v>
+        <v>66.38</v>
       </c>
       <c r="H22" s="4">
-        <v>6.71</v>
+        <v>1.72</v>
       </c>
       <c r="I22" s="4">
-        <v>46.67</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+        <v>50</v>
+      </c>
+      <c r="J22" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="3" t="s">
-        <v>50</v>
+        <v>7</v>
       </c>
       <c r="B23" s="4">
-        <v>648</v>
+        <v>666</v>
       </c>
       <c r="C23" s="4">
-        <v>2978141</v>
+        <v>4683621</v>
       </c>
       <c r="D23" s="4">
-        <v>21444</v>
+        <v>46813</v>
       </c>
       <c r="E23" s="4">
-        <v>5328</v>
+        <v>9576</v>
       </c>
       <c r="F23" s="4">
-        <v>4596</v>
+        <v>7032</v>
       </c>
       <c r="G23" s="4">
-        <v>65.28</v>
+        <v>88.61</v>
       </c>
       <c r="H23" s="4">
-        <v>1.72</v>
+        <v>5.28</v>
       </c>
       <c r="I23" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A24" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B24" s="4">
-        <v>486</v>
-      </c>
-      <c r="C24" s="4">
-        <v>2321549</v>
-      </c>
-      <c r="D24" s="4">
-        <v>30043</v>
-      </c>
-      <c r="E24" s="4">
-        <v>5807</v>
-      </c>
-      <c r="F24" s="4">
-        <v>4777</v>
-      </c>
-      <c r="G24" s="4">
-        <v>87.26</v>
-      </c>
-      <c r="H24" s="4">
-        <v>2.7</v>
-      </c>
-      <c r="I24" s="4">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J23" s="5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B24" s="7">
+        <v>473</v>
+      </c>
+      <c r="C24" s="7">
+        <v>4354694</v>
+      </c>
+      <c r="D24" s="7">
+        <v>75566</v>
+      </c>
+      <c r="E24" s="7">
+        <v>17325</v>
+      </c>
+      <c r="F24" s="7">
+        <v>9207</v>
+      </c>
+      <c r="G24" s="7">
+        <v>96.41</v>
+      </c>
+      <c r="H24" s="7">
+        <v>7.17</v>
+      </c>
+      <c r="I24" s="7">
+        <v>32.549999999999997</v>
+      </c>
+      <c r="J24" s="8" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
-        <v>25</v>
+        <v>53</v>
       </c>
       <c r="B25" s="4">
-        <v>460</v>
+        <v>1114</v>
       </c>
       <c r="C25" s="4">
-        <v>1684213</v>
+        <v>2670439</v>
       </c>
       <c r="D25" s="4">
-        <v>17651</v>
+        <v>9495</v>
       </c>
       <c r="E25" s="4">
-        <v>4178</v>
+        <v>2331</v>
       </c>
       <c r="F25" s="4">
-        <v>3661</v>
+        <v>2397</v>
       </c>
       <c r="G25" s="4">
-        <v>63.7</v>
+        <v>62.82</v>
       </c>
       <c r="H25" s="4">
-        <v>4.68</v>
+        <v>14.97</v>
       </c>
       <c r="I25" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A26" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B26" s="4">
-        <v>661</v>
-      </c>
-      <c r="C26" s="4">
-        <v>1865794</v>
-      </c>
-      <c r="D26" s="4">
-        <v>11923</v>
-      </c>
-      <c r="E26" s="4">
-        <v>3078</v>
-      </c>
-      <c r="F26" s="4">
-        <v>2823</v>
-      </c>
-      <c r="G26" s="4">
-        <v>70.73</v>
-      </c>
-      <c r="H26" s="4">
-        <v>12.71</v>
-      </c>
-      <c r="I26" s="4">
-        <v>4.55</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J25" s="5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26" s="7">
+        <v>187</v>
+      </c>
+      <c r="C26" s="7">
+        <v>4521291</v>
+      </c>
+      <c r="D26" s="7">
+        <v>354714</v>
+      </c>
+      <c r="E26" s="7">
+        <v>61011</v>
+      </c>
+      <c r="F26" s="7">
+        <v>24178</v>
+      </c>
+      <c r="G26" s="7">
+        <v>96.17</v>
+      </c>
+      <c r="H26" s="7">
+        <v>6.69</v>
+      </c>
+      <c r="I26" s="7">
+        <v>0</v>
+      </c>
+      <c r="J26" s="8" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="3" t="s">
-        <v>40</v>
+        <v>18</v>
       </c>
       <c r="B27" s="4">
-        <v>798</v>
+        <v>407</v>
       </c>
       <c r="C27" s="4">
-        <v>2564938</v>
+        <v>3321492</v>
       </c>
       <c r="D27" s="4">
-        <v>11597</v>
+        <v>44753</v>
       </c>
       <c r="E27" s="4">
-        <v>3531</v>
+        <v>12241</v>
       </c>
       <c r="F27" s="4">
-        <v>3214</v>
+        <v>8161</v>
       </c>
       <c r="G27" s="4">
-        <v>78.69</v>
+        <v>82.82</v>
       </c>
       <c r="H27" s="4">
-        <v>4.7300000000000004</v>
+        <v>9.5399999999999991</v>
       </c>
       <c r="I27" s="4">
+        <v>6.67</v>
+      </c>
+      <c r="J27" s="5" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="B28" s="7">
+        <v>244</v>
+      </c>
+      <c r="C28" s="7">
+        <v>5053030</v>
+      </c>
+      <c r="D28" s="7">
+        <v>125330</v>
+      </c>
+      <c r="E28" s="7">
+        <v>42444</v>
+      </c>
+      <c r="F28" s="7">
+        <v>20880</v>
+      </c>
+      <c r="G28" s="7">
+        <v>98.83</v>
+      </c>
+      <c r="H28" s="7">
+        <v>1.01</v>
+      </c>
+      <c r="I28" s="7">
+        <v>16.670000000000002</v>
+      </c>
+      <c r="J28" s="8" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A29" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B29" s="4">
+        <v>351</v>
+      </c>
+      <c r="C29" s="4">
+        <v>2633640</v>
+      </c>
+      <c r="D29" s="4">
+        <v>67648</v>
+      </c>
+      <c r="E29" s="4">
+        <v>11712</v>
+      </c>
+      <c r="F29" s="4">
+        <v>7503</v>
+      </c>
+      <c r="G29" s="4">
+        <v>87.5</v>
+      </c>
+      <c r="H29" s="4">
+        <v>4.7699999999999996</v>
+      </c>
+      <c r="I29" s="4">
+        <v>10</v>
+      </c>
+      <c r="J29" s="5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A30" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B30" s="4">
+        <v>745</v>
+      </c>
+      <c r="C30" s="4">
+        <v>3577357</v>
+      </c>
+      <c r="D30" s="4">
+        <v>34346</v>
+      </c>
+      <c r="E30" s="4">
+        <v>6271</v>
+      </c>
+      <c r="F30" s="4">
+        <v>4802</v>
+      </c>
+      <c r="G30" s="4">
+        <v>79.540000000000006</v>
+      </c>
+      <c r="H30" s="4">
+        <v>0.85</v>
+      </c>
+      <c r="I30" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A28" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B28" s="4">
-        <v>953</v>
-      </c>
-      <c r="C28" s="4">
-        <v>2657760</v>
-      </c>
-      <c r="D28" s="4">
-        <v>17576</v>
-      </c>
-      <c r="E28" s="4">
-        <v>2874</v>
-      </c>
-      <c r="F28" s="4">
-        <v>2789</v>
-      </c>
-      <c r="G28" s="4">
-        <v>64.819999999999993</v>
-      </c>
-      <c r="H28" s="4">
-        <v>2.97</v>
-      </c>
-      <c r="I28" s="4">
-        <v>33.33</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A29" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="B29" s="4">
-        <v>215</v>
-      </c>
-      <c r="C29" s="4">
-        <v>1934966</v>
-      </c>
-      <c r="D29" s="4">
-        <v>50152</v>
-      </c>
-      <c r="E29" s="4">
-        <v>14825</v>
-      </c>
-      <c r="F29" s="4">
-        <v>9000</v>
-      </c>
-      <c r="G29" s="4">
-        <v>91</v>
-      </c>
-      <c r="H29" s="4">
-        <v>1.31</v>
-      </c>
-      <c r="I29" s="4">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A30" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B30" s="4">
-        <v>359</v>
-      </c>
-      <c r="C30" s="4">
-        <v>1960875</v>
-      </c>
-      <c r="D30" s="4">
-        <v>24857</v>
-      </c>
-      <c r="E30" s="4">
-        <v>7273</v>
-      </c>
-      <c r="F30" s="4">
-        <v>5462</v>
-      </c>
-      <c r="G30" s="4">
-        <v>64.19</v>
-      </c>
-      <c r="H30" s="4">
-        <v>2</v>
-      </c>
-      <c r="I30" s="4">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J30" s="5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" s="3" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="B31" s="4">
-        <v>773</v>
+        <v>304</v>
       </c>
       <c r="C31" s="4">
-        <v>6965961</v>
+        <v>2216952</v>
       </c>
       <c r="D31" s="4">
-        <v>67639</v>
+        <v>36441</v>
       </c>
       <c r="E31" s="4">
-        <v>13892</v>
+        <v>10168</v>
       </c>
       <c r="F31" s="4">
-        <v>9012</v>
+        <v>7293</v>
       </c>
       <c r="G31" s="4">
-        <v>95.63</v>
+        <v>91.4</v>
       </c>
       <c r="H31" s="4">
-        <v>3.93</v>
+        <v>3.53</v>
       </c>
       <c r="I31" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J31" s="5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" s="3" t="s">
-        <v>66</v>
+        <v>1</v>
       </c>
       <c r="B32" s="4">
+        <v>379</v>
+      </c>
+      <c r="C32" s="4">
+        <v>1725728</v>
+      </c>
+      <c r="D32" s="4">
+        <v>23308</v>
+      </c>
+      <c r="E32" s="4">
+        <v>5263</v>
+      </c>
+      <c r="F32" s="4">
+        <v>4553</v>
+      </c>
+      <c r="G32" s="4">
+        <v>71.959999999999994</v>
+      </c>
+      <c r="H32" s="4">
+        <v>3.64</v>
+      </c>
+      <c r="I32" s="4">
+        <v>50</v>
+      </c>
+      <c r="J32" s="5" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A33" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B33" s="4">
+        <v>245</v>
+      </c>
+      <c r="C33" s="4">
+        <v>7536406</v>
+      </c>
+      <c r="D33" s="4">
+        <v>194895</v>
+      </c>
+      <c r="E33" s="4">
+        <v>54898</v>
+      </c>
+      <c r="F33" s="4">
+        <v>30761</v>
+      </c>
+      <c r="G33" s="4">
+        <v>95.73</v>
+      </c>
+      <c r="H33" s="4">
+        <v>11.54</v>
+      </c>
+      <c r="I33" s="4">
+        <v>20</v>
+      </c>
+      <c r="J33" s="5" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A34" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B34" s="4">
+        <v>1735</v>
+      </c>
+      <c r="C34" s="4">
+        <v>6798508</v>
+      </c>
+      <c r="D34" s="4">
+        <v>23047</v>
+      </c>
+      <c r="E34" s="4">
+        <v>4768</v>
+      </c>
+      <c r="F34" s="4">
+        <v>3918</v>
+      </c>
+      <c r="G34" s="4">
+        <v>79.739999999999995</v>
+      </c>
+      <c r="H34" s="4">
+        <v>4.3099999999999996</v>
+      </c>
+      <c r="I34" s="4">
+        <v>5.56</v>
+      </c>
+      <c r="J34" s="5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A35" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B35" s="4">
+        <v>297</v>
+      </c>
+      <c r="C35" s="4">
+        <v>2832104</v>
+      </c>
+      <c r="D35" s="4">
+        <v>59409</v>
+      </c>
+      <c r="E35" s="4">
+        <v>15439</v>
+      </c>
+      <c r="F35" s="4">
+        <v>9536</v>
+      </c>
+      <c r="G35" s="4">
+        <v>95.81</v>
+      </c>
+      <c r="H35" s="4">
+        <v>3.04</v>
+      </c>
+      <c r="I35" s="4">
+        <v>10</v>
+      </c>
+      <c r="J35" s="5" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A36" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B36" s="4">
+        <v>224</v>
+      </c>
+      <c r="C36" s="4">
+        <v>3408579</v>
+      </c>
+      <c r="D36" s="4">
+        <v>109278</v>
+      </c>
+      <c r="E36" s="4">
+        <v>28435</v>
+      </c>
+      <c r="F36" s="4">
+        <v>15217</v>
+      </c>
+      <c r="G36" s="4">
+        <v>94.4</v>
+      </c>
+      <c r="H36" s="4">
+        <v>3.8</v>
+      </c>
+      <c r="I36" s="4">
+        <v>11.54</v>
+      </c>
+      <c r="J36" s="5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A37" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B37" s="4">
+        <v>398</v>
+      </c>
+      <c r="C37" s="4">
+        <v>1789201</v>
+      </c>
+      <c r="D37" s="4">
+        <v>18334</v>
+      </c>
+      <c r="E37" s="4">
+        <v>5857</v>
+      </c>
+      <c r="F37" s="4">
+        <v>4495</v>
+      </c>
+      <c r="G37" s="4">
+        <v>63.05</v>
+      </c>
+      <c r="H37" s="4">
+        <v>5.78</v>
+      </c>
+      <c r="I37" s="4">
+        <v>0</v>
+      </c>
+      <c r="J37" s="5" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A38" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B38" s="4">
+        <v>1046</v>
+      </c>
+      <c r="C38" s="4">
+        <v>2797134</v>
+      </c>
+      <c r="D38" s="4">
+        <v>13614</v>
+      </c>
+      <c r="E38" s="4">
+        <v>2757</v>
+      </c>
+      <c r="F38" s="4">
+        <v>2674</v>
+      </c>
+      <c r="G38" s="4">
+        <v>67.31</v>
+      </c>
+      <c r="H38" s="4">
+        <v>14.59</v>
+      </c>
+      <c r="I38" s="4">
+        <v>7.69</v>
+      </c>
+      <c r="J38" s="5" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A39" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B39" s="4">
         <v>1233</v>
       </c>
-      <c r="C32" s="4">
+      <c r="C39" s="4">
         <v>6557798</v>
       </c>
-      <c r="D32" s="4">
+      <c r="D39" s="4">
         <v>32537</v>
       </c>
-      <c r="E32" s="4">
+      <c r="E39" s="4">
         <v>6759</v>
       </c>
-      <c r="F32" s="4">
+      <c r="F39" s="4">
         <v>5319</v>
       </c>
-      <c r="G32" s="4">
+      <c r="G39" s="4">
         <v>66.88</v>
       </c>
-      <c r="H32" s="4">
+      <c r="H39" s="4">
         <v>8.6199999999999992</v>
       </c>
-      <c r="I32" s="4">
+      <c r="I39" s="4">
         <v>20</v>
       </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A33" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="B33" s="4">
-        <v>1046</v>
-      </c>
-      <c r="C33" s="4">
-        <v>2797134</v>
-      </c>
-      <c r="D33" s="4">
-        <v>13614</v>
-      </c>
-      <c r="E33" s="4">
-        <v>2757</v>
-      </c>
-      <c r="F33" s="4">
-        <v>2674</v>
-      </c>
-      <c r="G33" s="4">
-        <v>61.31</v>
-      </c>
-      <c r="H33" s="4">
-        <v>14.59</v>
-      </c>
-      <c r="I33" s="4">
-        <v>7.69</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A34" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B34" s="4">
-        <v>398</v>
-      </c>
-      <c r="C34" s="4">
-        <v>1789201</v>
-      </c>
-      <c r="D34" s="4">
-        <v>18334</v>
-      </c>
-      <c r="E34" s="4">
-        <v>5857</v>
-      </c>
-      <c r="F34" s="4">
-        <v>4495</v>
-      </c>
-      <c r="G34" s="4">
-        <v>63.05</v>
-      </c>
-      <c r="H34" s="4">
-        <v>5.78</v>
-      </c>
-      <c r="I34" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A35" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="B35" s="4">
-        <v>224</v>
-      </c>
-      <c r="C35" s="4">
-        <v>3408579</v>
-      </c>
-      <c r="D35" s="4">
-        <v>109278</v>
-      </c>
-      <c r="E35" s="4">
-        <v>28435</v>
-      </c>
-      <c r="F35" s="4">
-        <v>15217</v>
-      </c>
-      <c r="G35" s="4">
-        <v>94.4</v>
-      </c>
-      <c r="H35" s="4">
-        <v>3.8</v>
-      </c>
-      <c r="I35" s="4">
-        <v>11.54</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A36" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="B36" s="4">
-        <v>297</v>
-      </c>
-      <c r="C36" s="4">
-        <v>2832104</v>
-      </c>
-      <c r="D36" s="4">
-        <v>59409</v>
-      </c>
-      <c r="E36" s="4">
-        <v>15439</v>
-      </c>
-      <c r="F36" s="4">
-        <v>9536</v>
-      </c>
-      <c r="G36" s="4">
-        <v>95.81</v>
-      </c>
-      <c r="H36" s="4">
-        <v>3.04</v>
-      </c>
-      <c r="I36" s="4">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A37" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="B37" s="4">
-        <v>1735</v>
-      </c>
-      <c r="C37" s="4">
-        <v>6798508</v>
-      </c>
-      <c r="D37" s="4">
-        <v>23047</v>
-      </c>
-      <c r="E37" s="4">
-        <v>4768</v>
-      </c>
-      <c r="F37" s="4">
-        <v>3918</v>
-      </c>
-      <c r="G37" s="4">
-        <v>79.739999999999995</v>
-      </c>
-      <c r="H37" s="4">
-        <v>4.3099999999999996</v>
-      </c>
-      <c r="I37" s="4">
-        <v>5.56</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A38" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="B38" s="4">
-        <v>245</v>
-      </c>
-      <c r="C38" s="4">
-        <v>7536406</v>
-      </c>
-      <c r="D38" s="4">
-        <v>194895</v>
-      </c>
-      <c r="E38" s="4">
-        <v>54898</v>
-      </c>
-      <c r="F38" s="4">
-        <v>30761</v>
-      </c>
-      <c r="G38" s="4">
-        <v>95.73</v>
-      </c>
-      <c r="H38" s="4">
-        <v>11.54</v>
-      </c>
-      <c r="I38" s="4">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A39" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B39" s="4">
-        <v>379</v>
-      </c>
-      <c r="C39" s="4">
-        <v>1725728</v>
-      </c>
-      <c r="D39" s="4">
-        <v>23308</v>
-      </c>
-      <c r="E39" s="4">
-        <v>5263</v>
-      </c>
-      <c r="F39" s="4">
-        <v>4553</v>
-      </c>
-      <c r="G39" s="4">
-        <v>71.959999999999994</v>
-      </c>
-      <c r="H39" s="4">
-        <v>3.64</v>
-      </c>
-      <c r="I39" s="4">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J39" s="5" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" s="3" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="B40" s="4">
-        <v>304</v>
+        <v>773</v>
       </c>
       <c r="C40" s="4">
-        <v>2216952</v>
+        <v>6965961</v>
       </c>
       <c r="D40" s="4">
-        <v>36441</v>
+        <v>67639</v>
       </c>
       <c r="E40" s="4">
-        <v>10168</v>
+        <v>13892</v>
       </c>
       <c r="F40" s="4">
-        <v>7293</v>
+        <v>9012</v>
       </c>
       <c r="G40" s="4">
-        <v>91.4</v>
+        <v>95.63</v>
       </c>
       <c r="H40" s="4">
-        <v>3.53</v>
+        <v>3.93</v>
       </c>
       <c r="I40" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J40" s="5" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" s="3" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="B41" s="4">
-        <v>943</v>
+        <v>359</v>
       </c>
       <c r="C41" s="4">
-        <v>4304895</v>
+        <v>1960875</v>
       </c>
       <c r="D41" s="4">
-        <v>26894</v>
+        <v>24857</v>
       </c>
       <c r="E41" s="4">
-        <v>5371</v>
+        <v>7273</v>
       </c>
       <c r="F41" s="4">
-        <v>4565</v>
+        <v>5462</v>
       </c>
       <c r="G41" s="4">
-        <v>80.040000000000006</v>
+        <v>64.19</v>
       </c>
       <c r="H41" s="4">
-        <v>4.93</v>
+        <v>2</v>
       </c>
       <c r="I41" s="4">
-        <v>18.18</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+      <c r="J41" s="5" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42" s="3" t="s">
-        <v>13</v>
+        <v>61</v>
       </c>
       <c r="B42" s="4">
-        <v>351</v>
+        <v>215</v>
       </c>
       <c r="C42" s="4">
-        <v>2633640</v>
+        <v>1934966</v>
       </c>
       <c r="D42" s="4">
-        <v>67648</v>
+        <v>50152</v>
       </c>
       <c r="E42" s="4">
-        <v>11712</v>
+        <v>14825</v>
       </c>
       <c r="F42" s="4">
-        <v>7503</v>
+        <v>9000</v>
       </c>
       <c r="G42" s="4">
-        <v>87.5</v>
+        <v>91</v>
       </c>
       <c r="H42" s="4">
-        <v>4.7699999999999996</v>
+        <v>1.31</v>
       </c>
       <c r="I42" s="4">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+        <v>50</v>
+      </c>
+      <c r="J42" s="5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43" s="3" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="B43" s="4">
-        <v>407</v>
+        <v>953</v>
       </c>
       <c r="C43" s="4">
-        <v>3321492</v>
+        <v>2657760</v>
       </c>
       <c r="D43" s="4">
-        <v>44753</v>
+        <v>17576</v>
       </c>
       <c r="E43" s="4">
-        <v>12241</v>
+        <v>2874</v>
       </c>
       <c r="F43" s="4">
-        <v>8161</v>
+        <v>2789</v>
       </c>
       <c r="G43" s="4">
-        <v>82.82</v>
+        <v>64.819999999999993</v>
       </c>
       <c r="H43" s="4">
-        <v>9.5399999999999991</v>
+        <v>2.97</v>
       </c>
       <c r="I43" s="4">
-        <v>6.67</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+        <v>33.33</v>
+      </c>
+      <c r="J43" s="5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44" s="3" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="B44" s="4">
-        <v>187</v>
+        <v>798</v>
       </c>
       <c r="C44" s="4">
-        <v>4521291</v>
+        <v>2564938</v>
       </c>
       <c r="D44" s="4">
-        <v>354714</v>
+        <v>11597</v>
       </c>
       <c r="E44" s="4">
-        <v>61011</v>
+        <v>3531</v>
       </c>
       <c r="F44" s="4">
-        <v>24178</v>
+        <v>3214</v>
       </c>
       <c r="G44" s="4">
-        <v>96.17</v>
+        <v>78.69</v>
       </c>
       <c r="H44" s="4">
-        <v>6.69</v>
+        <v>4.7300000000000004</v>
       </c>
       <c r="I44" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J44" s="5" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45" s="3" t="s">
-        <v>55</v>
+        <v>13</v>
       </c>
       <c r="B45" s="4">
-        <v>1114</v>
+        <v>661</v>
       </c>
       <c r="C45" s="4">
-        <v>2670439</v>
+        <v>1865794</v>
       </c>
       <c r="D45" s="4">
-        <v>9495</v>
+        <v>11923</v>
       </c>
       <c r="E45" s="4">
-        <v>2331</v>
+        <v>3078</v>
       </c>
       <c r="F45" s="4">
-        <v>2397</v>
+        <v>2823</v>
       </c>
       <c r="G45" s="4">
-        <v>62.82</v>
+        <v>70.73</v>
       </c>
       <c r="H45" s="4">
-        <v>14.97</v>
+        <v>12.71</v>
       </c>
       <c r="I45" s="4">
+        <v>4.55</v>
+      </c>
+      <c r="J45" s="5" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A46" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B46" s="4">
+        <v>460</v>
+      </c>
+      <c r="C46" s="4">
+        <v>1684213</v>
+      </c>
+      <c r="D46" s="4">
+        <v>17651</v>
+      </c>
+      <c r="E46" s="4">
+        <v>4178</v>
+      </c>
+      <c r="F46" s="4">
+        <v>3661</v>
+      </c>
+      <c r="G46" s="4">
+        <v>68.7</v>
+      </c>
+      <c r="H46" s="4">
+        <v>4.68</v>
+      </c>
+      <c r="I46" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A46" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B46" s="4">
-        <v>473</v>
-      </c>
-      <c r="C46" s="4">
-        <v>4354694</v>
-      </c>
-      <c r="D46" s="4">
-        <v>75566</v>
-      </c>
-      <c r="E46" s="4">
-        <v>17325</v>
-      </c>
-      <c r="F46" s="4">
-        <v>9207</v>
-      </c>
-      <c r="G46" s="4">
-        <v>96.41</v>
-      </c>
-      <c r="H46" s="4">
-        <v>7.17</v>
-      </c>
-      <c r="I46" s="4">
-        <v>42.55</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J46" s="5" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47" s="3" t="s">
-        <v>8</v>
+        <v>35</v>
       </c>
       <c r="B47" s="4">
-        <v>666</v>
+        <v>486</v>
       </c>
       <c r="C47" s="4">
-        <v>4683621</v>
+        <v>2321549</v>
       </c>
       <c r="D47" s="4">
-        <v>46813</v>
+        <v>30043</v>
       </c>
       <c r="E47" s="4">
-        <v>9576</v>
+        <v>5807</v>
       </c>
       <c r="F47" s="4">
-        <v>7032</v>
+        <v>4777</v>
       </c>
       <c r="G47" s="4">
-        <v>88.61</v>
+        <v>87.26</v>
       </c>
       <c r="H47" s="4">
-        <v>5.28</v>
+        <v>2.7</v>
       </c>
       <c r="I47" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+        <v>50</v>
+      </c>
+      <c r="J47" s="5" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48" s="3" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B48" s="4">
-        <v>576</v>
+        <v>648</v>
       </c>
       <c r="C48" s="4">
-        <v>3501132</v>
+        <v>2978141</v>
       </c>
       <c r="D48" s="4">
-        <v>25499</v>
+        <v>21444</v>
       </c>
       <c r="E48" s="4">
-        <v>7200</v>
+        <v>5328</v>
       </c>
       <c r="F48" s="4">
-        <v>6078</v>
+        <v>4596</v>
       </c>
       <c r="G48" s="4">
-        <v>66.38</v>
+        <v>65.28</v>
       </c>
       <c r="H48" s="4">
         <v>1.72</v>
       </c>
       <c r="I48" s="4">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="J48" s="5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49" s="3" t="s">
-        <v>18</v>
+        <v>65</v>
       </c>
       <c r="B49" s="4">
-        <v>564</v>
+        <v>771</v>
       </c>
       <c r="C49" s="4">
-        <v>1995545</v>
+        <v>3064732</v>
       </c>
       <c r="D49" s="4">
-        <v>16869</v>
+        <v>21647</v>
       </c>
       <c r="E49" s="4">
-        <v>4147</v>
+        <v>4707</v>
       </c>
       <c r="F49" s="4">
-        <v>3538</v>
+        <v>3975</v>
       </c>
       <c r="G49" s="4">
-        <v>66.459999999999994</v>
+        <v>68.430000000000007</v>
       </c>
       <c r="H49" s="4">
-        <v>2.61</v>
+        <v>6.71</v>
       </c>
       <c r="I49" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+        <v>46.67</v>
+      </c>
+      <c r="J49" s="5" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50" s="3" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="B50" s="4">
-        <v>908</v>
+        <v>1740</v>
       </c>
       <c r="C50" s="4">
-        <v>2932732</v>
+        <v>5092525</v>
       </c>
       <c r="D50" s="4">
-        <v>16112</v>
+        <v>47244</v>
       </c>
       <c r="E50" s="4">
-        <v>3560</v>
+        <v>3076</v>
       </c>
       <c r="F50" s="4">
-        <v>3230</v>
+        <v>2927</v>
       </c>
       <c r="G50" s="4">
-        <v>78.150000000000006</v>
+        <v>69.12</v>
       </c>
       <c r="H50" s="4">
-        <v>13</v>
+        <v>14.15</v>
       </c>
       <c r="I50" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+        <v>4.17</v>
+      </c>
+      <c r="J50" s="5" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51" s="3" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B51" s="4">
-        <v>808</v>
+        <v>480</v>
       </c>
       <c r="C51" s="4">
-        <v>5788310</v>
+        <v>3966678</v>
       </c>
       <c r="D51" s="4">
-        <v>54688</v>
+        <v>42998</v>
       </c>
       <c r="E51" s="4">
-        <v>8730</v>
+        <v>10606</v>
       </c>
       <c r="F51" s="4">
-        <v>7164</v>
+        <v>8264</v>
       </c>
       <c r="G51" s="4">
-        <v>92.69</v>
+        <v>91.61</v>
       </c>
       <c r="H51" s="4">
-        <v>2.59</v>
+        <v>0.79</v>
       </c>
       <c r="I51" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J51" s="5" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52" s="3" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="B52" s="4">
-        <v>842</v>
+        <v>306</v>
       </c>
       <c r="C52" s="4">
-        <v>3399924</v>
+        <v>4336424</v>
       </c>
       <c r="D52" s="4">
-        <v>31988</v>
+        <v>127932</v>
       </c>
       <c r="E52" s="4">
-        <v>4995</v>
+        <v>27319</v>
       </c>
       <c r="F52" s="4">
-        <v>4038</v>
+        <v>14171</v>
       </c>
       <c r="G52" s="4">
-        <v>76.180000000000007</v>
+        <v>92.12</v>
       </c>
       <c r="H52" s="4">
-        <v>14.8</v>
+        <v>12.2</v>
       </c>
       <c r="I52" s="4">
-        <v>20.59</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+      <c r="J52" s="5" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53" s="3" t="s">
-        <v>7</v>
+        <v>133</v>
       </c>
       <c r="B53" s="4">
-        <v>735</v>
+        <v>1157</v>
       </c>
       <c r="C53" s="4">
-        <v>4236489</v>
+        <v>3663284</v>
       </c>
       <c r="D53" s="4">
-        <v>32671</v>
+        <v>16484</v>
       </c>
       <c r="E53" s="4">
-        <v>7225</v>
+        <v>3519</v>
       </c>
       <c r="F53" s="4">
-        <v>5764</v>
+        <v>3166</v>
       </c>
       <c r="G53" s="4">
-        <v>63.48</v>
+        <v>68.42</v>
       </c>
       <c r="H53" s="4">
-        <v>0</v>
+        <v>3.88</v>
       </c>
       <c r="I53" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J53" s="5" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54" s="3" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B54" s="4">
-        <v>1239</v>
+        <v>550</v>
       </c>
       <c r="C54" s="4">
-        <v>6435600</v>
+        <v>1877305</v>
       </c>
       <c r="D54" s="4">
-        <v>44285</v>
+        <v>20334</v>
       </c>
       <c r="E54" s="4">
-        <v>6585</v>
+        <v>3680</v>
       </c>
       <c r="F54" s="4">
-        <v>5194</v>
+        <v>3413</v>
       </c>
       <c r="G54" s="4">
-        <v>90.8</v>
+        <v>65.94</v>
       </c>
       <c r="H54" s="4">
-        <v>3.16</v>
+        <v>0.59</v>
       </c>
       <c r="I54" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J54" s="5" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A55" s="3" t="s">
-        <v>10</v>
+        <v>62</v>
       </c>
       <c r="B55" s="4">
-        <v>273</v>
+        <v>623</v>
       </c>
       <c r="C55" s="4">
-        <v>2759180</v>
+        <v>1971248</v>
       </c>
       <c r="D55" s="4">
-        <v>128643</v>
+        <v>15180</v>
       </c>
       <c r="E55" s="4">
-        <v>16128</v>
+        <v>3451</v>
       </c>
       <c r="F55" s="4">
-        <v>10107</v>
+        <v>3164</v>
       </c>
       <c r="G55" s="4">
-        <v>94.17</v>
+        <v>67.010000000000005</v>
       </c>
       <c r="H55" s="4">
-        <v>3.97</v>
+        <v>3.11</v>
       </c>
       <c r="I55" s="4">
-        <v>35.29</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+        <v>50</v>
+      </c>
+      <c r="J55" s="5" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A56" s="3" t="s">
-        <v>33</v>
+        <v>2</v>
       </c>
       <c r="B56" s="4">
-        <v>387</v>
+        <v>765</v>
       </c>
       <c r="C56" s="4">
-        <v>7744305</v>
+        <v>3146301</v>
       </c>
       <c r="D56" s="4">
-        <v>201332</v>
+        <v>20724</v>
       </c>
       <c r="E56" s="4">
-        <v>48646</v>
+        <v>5061</v>
       </c>
       <c r="F56" s="4">
-        <v>20011</v>
+        <v>4113</v>
       </c>
       <c r="G56" s="4">
-        <v>94.62</v>
+        <v>82.37</v>
       </c>
       <c r="H56" s="4">
-        <v>10.67</v>
+        <v>8.69</v>
       </c>
       <c r="I56" s="4">
-        <v>20.37</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A57" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B57" s="4">
-        <v>727</v>
-      </c>
-      <c r="C57" s="4">
-        <v>2639665</v>
-      </c>
-      <c r="D57" s="4">
-        <v>13516</v>
-      </c>
-      <c r="E57" s="4">
-        <v>3969</v>
-      </c>
-      <c r="F57" s="4">
-        <v>3631</v>
-      </c>
-      <c r="G57" s="4">
-        <v>69.87</v>
-      </c>
-      <c r="H57" s="4">
-        <v>12.8</v>
-      </c>
-      <c r="I57" s="4">
-        <v>28.57</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
+        <v>33.33</v>
+      </c>
+      <c r="J56" s="5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B57" s="7">
+        <v>1374</v>
+      </c>
+      <c r="C57" s="7">
+        <v>4234056</v>
+      </c>
+      <c r="D57" s="7">
+        <v>17390</v>
+      </c>
+      <c r="E57" s="7">
+        <v>3400</v>
+      </c>
+      <c r="F57" s="7">
+        <v>3082</v>
+      </c>
+      <c r="G57" s="7">
+        <v>68.290000000000006</v>
+      </c>
+      <c r="H57" s="7">
+        <v>6.69</v>
+      </c>
+      <c r="I57" s="7">
+        <v>8.11</v>
+      </c>
+      <c r="J57" s="8" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A58" s="3" t="s">
-        <v>22</v>
+        <v>42</v>
       </c>
       <c r="B58" s="4">
-        <v>1680</v>
+        <v>88</v>
       </c>
       <c r="C58" s="4">
-        <v>4590636</v>
+        <v>2728312</v>
       </c>
       <c r="D58" s="4">
-        <v>11481</v>
+        <v>198475</v>
       </c>
       <c r="E58" s="4">
-        <v>2875</v>
+        <v>50079</v>
       </c>
       <c r="F58" s="4">
-        <v>2733</v>
+        <v>31004</v>
       </c>
       <c r="G58" s="4">
-        <v>70.430000000000007</v>
+        <v>94.08</v>
       </c>
       <c r="H58" s="4">
-        <v>3.11</v>
+        <v>0.82</v>
       </c>
       <c r="I58" s="4">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="J58" s="5" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A59" s="3" t="s">
-        <v>28</v>
+        <v>3</v>
       </c>
       <c r="B59" s="4">
-        <v>489</v>
+        <v>761</v>
       </c>
       <c r="C59" s="4">
-        <v>2847672</v>
+        <v>2061553</v>
       </c>
       <c r="D59" s="4">
-        <v>38805</v>
+        <v>9527</v>
       </c>
       <c r="E59" s="4">
-        <v>8313</v>
+        <v>2829</v>
       </c>
       <c r="F59" s="4">
-        <v>5823</v>
+        <v>2709</v>
       </c>
       <c r="G59" s="4">
-        <v>78.03</v>
+        <v>65.83</v>
       </c>
       <c r="H59" s="4">
-        <v>11.66</v>
+        <v>14.89</v>
       </c>
       <c r="I59" s="4">
-        <v>13.79</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="J59" s="5" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A60" s="3" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="B60" s="4">
-        <v>157</v>
+        <v>637</v>
       </c>
       <c r="C60" s="4">
-        <v>5065830</v>
+        <v>2698834</v>
       </c>
       <c r="D60" s="4">
-        <v>185850</v>
+        <v>16324</v>
       </c>
       <c r="E60" s="4">
-        <v>53459</v>
+        <v>4679</v>
       </c>
       <c r="F60" s="4">
-        <v>32266</v>
+        <v>4237</v>
       </c>
       <c r="G60" s="4">
-        <v>98.96</v>
+        <v>70.61</v>
       </c>
       <c r="H60" s="4">
-        <v>1.71</v>
+        <v>13.43</v>
       </c>
       <c r="I60" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
+        <v>44.44</v>
+      </c>
+      <c r="J60" s="5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A61" s="3" t="s">
-        <v>23</v>
+        <v>58</v>
       </c>
       <c r="B61" s="4">
-        <v>406</v>
+        <v>595</v>
       </c>
       <c r="C61" s="4">
-        <v>2455239</v>
+        <v>4167552</v>
       </c>
       <c r="D61" s="4">
-        <v>74271</v>
+        <v>42315</v>
       </c>
       <c r="E61" s="4">
-        <v>8043</v>
+        <v>9553</v>
       </c>
       <c r="F61" s="4">
-        <v>6047</v>
+        <v>7004</v>
       </c>
       <c r="G61" s="4">
-        <v>80.489999999999995</v>
+        <v>95.29</v>
       </c>
       <c r="H61" s="4">
-        <v>10.71</v>
+        <v>1.68</v>
       </c>
       <c r="I61" s="4">
-        <v>5.88</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
+        <v>50</v>
+      </c>
+      <c r="J61" s="5" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A62" s="3" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="B62" s="4">
-        <v>625</v>
+        <v>257</v>
       </c>
       <c r="C62" s="4">
-        <v>2381711</v>
+        <v>4349857</v>
       </c>
       <c r="D62" s="4">
-        <v>24629</v>
+        <v>86624</v>
       </c>
       <c r="E62" s="4">
-        <v>4498</v>
+        <v>29966</v>
       </c>
       <c r="F62" s="4">
-        <v>3811</v>
+        <v>16926</v>
       </c>
       <c r="G62" s="4">
-        <v>65.34</v>
+        <v>93.92</v>
       </c>
       <c r="H62" s="4">
-        <v>10.52</v>
+        <v>5.98</v>
       </c>
       <c r="I62" s="4">
-        <v>18.97</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A63" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="B63" s="4">
-        <v>661</v>
-      </c>
-      <c r="C63" s="4">
-        <v>3905801</v>
-      </c>
-      <c r="D63" s="4">
-        <v>26079</v>
-      </c>
-      <c r="E63" s="4">
-        <v>6822</v>
-      </c>
-      <c r="F63" s="4">
-        <v>5909</v>
-      </c>
-      <c r="G63" s="4">
-        <v>66.38</v>
-      </c>
-      <c r="H63" s="4">
-        <v>0</v>
-      </c>
-      <c r="I63" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A64" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B64" s="4">
-        <v>820</v>
-      </c>
-      <c r="C64" s="4">
-        <v>3128623</v>
-      </c>
-      <c r="D64" s="4">
-        <v>30784</v>
-      </c>
-      <c r="E64" s="4">
-        <v>4717</v>
-      </c>
-      <c r="F64" s="4">
-        <v>3815</v>
-      </c>
-      <c r="G64" s="4">
-        <v>83.24</v>
-      </c>
-      <c r="H64" s="4">
-        <v>13.57</v>
-      </c>
-      <c r="I64" s="4">
-        <v>6.45</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
+        <v>18.18</v>
+      </c>
+      <c r="J62" s="5" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B63" s="7">
+        <v>1033</v>
+      </c>
+      <c r="C63" s="7">
+        <v>2311786</v>
+      </c>
+      <c r="D63" s="7">
+        <v>26036</v>
+      </c>
+      <c r="E63" s="7">
+        <v>5306</v>
+      </c>
+      <c r="F63" s="7">
+        <v>4337</v>
+      </c>
+      <c r="G63" s="7">
+        <v>74.739999999999995</v>
+      </c>
+      <c r="H63" s="7">
+        <v>4.5599999999999996</v>
+      </c>
+      <c r="I63" s="7">
+        <v>11.11</v>
+      </c>
+      <c r="J63" s="8" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B64" s="7">
+        <v>585</v>
+      </c>
+      <c r="C64" s="7">
+        <v>4665381</v>
+      </c>
+      <c r="D64" s="7">
+        <v>70751</v>
+      </c>
+      <c r="E64" s="7">
+        <v>12561</v>
+      </c>
+      <c r="F64" s="7">
+        <v>7975</v>
+      </c>
+      <c r="G64" s="7">
+        <v>79.91</v>
+      </c>
+      <c r="H64" s="7">
+        <v>4.3</v>
+      </c>
+      <c r="I64" s="7">
+        <v>18.18</v>
+      </c>
+      <c r="J64" s="8" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A65" s="3" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="B65" s="4">
-        <v>930</v>
+        <v>194</v>
       </c>
       <c r="C65" s="4">
-        <v>8052229</v>
+        <v>6071438</v>
       </c>
       <c r="D65" s="4">
-        <v>121439</v>
+        <v>188737</v>
       </c>
       <c r="E65" s="4">
-        <v>16090</v>
+        <v>51522</v>
       </c>
       <c r="F65" s="4">
-        <v>10799</v>
+        <v>31296</v>
       </c>
       <c r="G65" s="4">
-        <v>93.68</v>
+        <v>94.68</v>
       </c>
       <c r="H65" s="4">
-        <v>5.2</v>
+        <v>4.2699999999999996</v>
       </c>
       <c r="I65" s="4">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J65" s="5" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A66" s="3" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="B66" s="4">
-        <v>911</v>
+        <v>522</v>
       </c>
       <c r="C66" s="4">
-        <v>3005219</v>
+        <v>1959850</v>
       </c>
       <c r="D66" s="4">
-        <v>12894</v>
+        <v>16203</v>
       </c>
       <c r="E66" s="4">
-        <v>3607</v>
+        <v>4320</v>
       </c>
       <c r="F66" s="4">
-        <v>3299</v>
+        <v>3755</v>
       </c>
       <c r="G66" s="4">
-        <v>79.25</v>
+        <v>67.42</v>
       </c>
       <c r="H66" s="4">
-        <v>7.89</v>
+        <v>0.68</v>
       </c>
       <c r="I66" s="4">
-        <v>18.18</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A67" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B67" s="4">
-        <v>1601</v>
-      </c>
-      <c r="C67" s="4">
-        <v>6682559</v>
-      </c>
-      <c r="D67" s="4">
-        <v>30370</v>
-      </c>
-      <c r="E67" s="4">
-        <v>5332</v>
-      </c>
-      <c r="F67" s="4">
-        <v>4174</v>
-      </c>
-      <c r="G67" s="4">
-        <v>92.55</v>
-      </c>
-      <c r="H67" s="4">
-        <v>8.83</v>
-      </c>
-      <c r="I67" s="4">
-        <v>35.71</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+      <c r="J66" s="5" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B67" s="7">
+        <v>1268</v>
+      </c>
+      <c r="C67" s="7">
+        <v>4166282</v>
+      </c>
+      <c r="D67" s="7">
+        <v>19864</v>
+      </c>
+      <c r="E67" s="7">
+        <v>3756</v>
+      </c>
+      <c r="F67" s="7">
+        <v>3286</v>
+      </c>
+      <c r="G67" s="7">
+        <v>76.52</v>
+      </c>
+      <c r="H67" s="7">
+        <v>13.85</v>
+      </c>
+      <c r="I67" s="7">
+        <v>0</v>
+      </c>
+      <c r="J67" s="8" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A68" s="3" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="B68" s="4">
-        <v>373</v>
+        <v>453</v>
       </c>
       <c r="C68" s="4">
-        <v>2911730</v>
+        <v>2864953</v>
       </c>
       <c r="D68" s="4">
-        <v>52421</v>
+        <v>33042</v>
       </c>
       <c r="E68" s="4">
-        <v>11772</v>
+        <v>7981</v>
       </c>
       <c r="F68" s="4">
-        <v>7806</v>
+        <v>6324</v>
       </c>
       <c r="G68" s="4">
-        <v>84.16</v>
+        <v>70.89</v>
       </c>
       <c r="H68" s="4">
-        <v>6.93</v>
+        <v>7.21</v>
       </c>
       <c r="I68" s="4">
-        <v>14.29</v>
+        <v>46.15</v>
+      </c>
+      <c r="J68" s="5" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A69" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B69" s="4">
+        <v>1150</v>
+      </c>
+      <c r="C69" s="4">
+        <v>2888246</v>
+      </c>
+      <c r="D69" s="4">
+        <v>8897</v>
+      </c>
+      <c r="E69" s="4">
+        <v>2587</v>
+      </c>
+      <c r="F69" s="4">
+        <v>2512</v>
+      </c>
+      <c r="G69" s="4">
+        <v>70.83</v>
+      </c>
+      <c r="H69" s="4">
+        <v>11.97</v>
+      </c>
+      <c r="I69" s="4">
+        <v>4.88</v>
+      </c>
+      <c r="J69" s="5" t="s">
+        <v>129</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:I1" xr:uid="{1D78CA1B-10CA-476C-B722-C5FFF7C21241}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I68">
-      <sortCondition descending="1" ref="A1"/>
+      <sortCondition ref="A1"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
